--- a/sample_users.xlsx
+++ b/sample_users.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,139 +461,131 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Amit Sharma</t>
+          <t>Swati Malhotra</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1990-05-12</t>
+          <t>1997-01-15</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>amit.sharma@example.com</t>
+          <t>swati.malhotra1@example.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Pass@123</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>9876543210</t>
-        </is>
+          <t>Swati@101</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>9876543201</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Delhi, India</t>
+          <t>Jaipur, India</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Neha Verma</t>
+          <t>Manish Gupta</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1992-08-22</t>
+          <t>1986-01-03</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>neha.verma@example.com</t>
+          <t>manish.gupta2@example.com</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Neha@456</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>9876543211</t>
-        </is>
+          <t>Manish@102</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>9876543202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Mumbai, India</t>
+          <t>Pune, India</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rahul Singh</t>
+          <t>Kavita Nair</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1988-03-10</t>
+          <t>1993-02-07</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>rahul.singh@example.com</t>
+          <t>kavita.nair3@example.com</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Rahul@789</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>9876543212</t>
-        </is>
+          <t>Kavita@103</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>9876543203</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bangalore, India</t>
+          <t>Kolkata, India</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Priya Mehta</t>
+          <t>Pooja Patel</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1995-11-05</t>
+          <t>1985-07-25</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>priya.mehta@example.com</t>
+          <t>pooja.patel4@example.com</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Priya@101</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>9876543213</t>
-        </is>
+          <t>Pooja@104</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>9876543204</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -602,72 +594,68 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ahmedabad, India</t>
+          <t>Surat, India</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Suresh Kumar</t>
+          <t>Pooja Nair</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1985-01-18</t>
+          <t>1997-12-21</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>suresh.kumar@example.com</t>
+          <t>pooja.nair5@example.com</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Suresh@202</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>9876543214</t>
-        </is>
+          <t>Pooja@105</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>9876543205</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chennai, India</t>
+          <t>Gurgaon, India</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Anjali Gupta</t>
+          <t>Swati Patel</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1993-06-30</t>
+          <t>1992-08-08</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>anjali.gupta@example.com</t>
+          <t>swati.patel6@example.com</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Anjali@303</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>9876543215</t>
-        </is>
+          <t>Swati@106</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>9876543206</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -676,35 +664,33 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Jaipur, India</t>
+          <t>Bangalore, India</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Vikram Patel</t>
+          <t>Deepak Mehta</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1989-09-14</t>
+          <t>1987-08-19</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>vikram.patel@example.com</t>
+          <t>deepak.mehta7@example.com</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Vikram@404</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>9876543216</t>
-        </is>
+          <t>Deepak@107</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>9876543207</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -713,44 +699,42 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Surat, India</t>
+          <t>Hyderabad, India</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pooja Nair</t>
+          <t>Rohit Nair</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1994-12-02</t>
+          <t>1993-11-11</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>pooja.nair@example.com</t>
+          <t>rohit.nair8@example.com</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Pooja@505</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>9876543217</t>
-        </is>
+          <t>Rohit@108</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>9876543208</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Kochi, India</t>
+          <t>Jaipur, India</t>
         </is>
       </c>
     </row>
@@ -762,23 +746,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1991-04-25</t>
+          <t>1985-04-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>rohit.malhotra@example.com</t>
+          <t>rohit.malhotra9@example.com</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Rohit@606</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>9876543218</t>
-        </is>
+          <t>Rohit@109</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>9876543209</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -787,35 +769,33 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Gurgaon, India</t>
+          <t>Surat, India</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Kavita Joshi</t>
+          <t>Megha Sharma</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1996-07-19</t>
+          <t>1992-08-24</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>kavita.joshi@example.com</t>
+          <t>megha.sharma10@example.com</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Kavita@707</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>9876543219</t>
-        </is>
+          <t>Megha@110</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>9876543210</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -824,7 +804,3157 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
+          <t>Chennai, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Megha Sharma</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1989-03-01</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>megha.sharma11@example.com</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Megha@111</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>9876543211</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Kolkata, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Pooja Kumar</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1986-05-08</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>pooja.kumar12@example.com</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Pooja@112</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>9876543212</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>Pune, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Suresh Nair</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1991-10-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>suresh.nair13@example.com</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Suresh@113</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>9876543213</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Kolkata, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Rajesh Joshi</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1995-09-04</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>rajesh.joshi14@example.com</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Rajesh@114</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>9876543214</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Ahmedabad, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Deepak Verma</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1996-03-25</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>deepak.verma15@example.com</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Deepak@115</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>9876543215</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Hyderabad, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Rohit Kumar</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1986-03-18</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>rohit.kumar16@example.com</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Rohit@116</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>9876543216</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Mumbai, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Karan Mehta</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1985-08-09</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>karan.mehta17@example.com</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Karan@117</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>9876543217</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Surat, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Priya Nair</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1997-04-16</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>priya.nair18@example.com</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Priya@118</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>9876543218</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Delhi, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Rohit Verma</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1987-11-13</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>rohit.verma19@example.com</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Rohit@119</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>9876543219</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Delhi, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Ritika Patel</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1997-06-15</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ritika.patel20@example.com</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Ritika@120</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>9876543220</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Ahmedabad, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Deepak Mehta</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1995-11-09</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>deepak.mehta21@example.com</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Deepak@121</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>9876543221</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Hyderabad, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Manish Sharma</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1988-09-09</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>manish.sharma22@example.com</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Manish@122</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>9876543222</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Hyderabad, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Kavita Patel</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1994-07-21</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>kavita.patel23@example.com</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Kavita@123</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>9876543223</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Hyderabad, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Rahul Verma</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1997-01-27</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>rahul.verma24@example.com</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Rahul@124</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>9876543224</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Surat, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Neha Malhotra</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1988-01-16</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>neha.malhotra25@example.com</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Neha@125</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>9876543225</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Kochi, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Swati Nair</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1987-02-18</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>swati.nair26@example.com</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Swati@126</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>9876543226</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Chennai, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Amit Nair</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1990-10-20</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>amit.nair27@example.com</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Amit@127</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>9876543227</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Ahmedabad, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Swati Patel</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1986-04-10</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>swati.patel28@example.com</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Swati@128</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>9876543228</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Delhi, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ritika Singh</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1990-04-20</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ritika.singh29@example.com</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Ritika@129</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>9876543229</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Pune, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Suresh Gupta</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1990-07-19</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>suresh.gupta30@example.com</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Suresh@130</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>9876543230</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Kochi, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Ritika Nair</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1992-04-28</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ritika.nair31@example.com</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Ritika@131</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>9876543231</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Delhi, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Nisha Joshi</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1994-12-21</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>nisha.joshi32@example.com</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Nisha@132</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>9876543232</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Gurgaon, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Vikram Singh</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1988-04-17</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>vikram.singh33@example.com</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Vikram@133</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>9876543233</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Mumbai, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Vikram Nair</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1991-09-14</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>vikram.nair34@example.com</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Vikram@134</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>9876543234</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Kolkata, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Ritika Patel</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1987-08-06</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ritika.patel35@example.com</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Ritika@135</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>9876543235</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Mumbai, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Kavita Kumar</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1997-08-25</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>kavita.kumar36@example.com</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Kavita@136</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>9876543236</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Ahmedabad, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Suresh Patel</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1990-07-15</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>suresh.patel37@example.com</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Suresh@137</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>9876543237</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Delhi, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Megha Singh</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1994-07-14</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>megha.singh38@example.com</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Megha@138</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>9876543238</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Gurgaon, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Pooja Gupta</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1987-09-14</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>pooja.gupta39@example.com</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Pooja@139</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>9876543239</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Chennai, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Karan Mehta</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1985-06-24</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>karan.mehta40@example.com</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Karan@140</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>9876543240</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Pune, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Manish Singh</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1990-08-01</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>manish.singh41@example.com</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Manish@141</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>9876543241</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Delhi, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Deepak Nair</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1990-09-02</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>deepak.nair42@example.com</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Deepak@142</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>9876543242</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Kochi, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Nisha Verma</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1987-04-26</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>nisha.verma43@example.com</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Nisha@143</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>9876543243</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Chennai, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Neha Sharma</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1994-03-19</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>neha.sharma44@example.com</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Neha@144</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>9876543244</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Gurgaon, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Anjali Malhotra</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1989-02-01</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>anjali.malhotra45@example.com</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Anjali@145</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>9876543245</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Gurgaon, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Megha Sharma</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1991-07-26</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>megha.sharma46@example.com</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Megha@146</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>9876543246</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Delhi, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Nisha Patel</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1998-04-08</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>nisha.patel47@example.com</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Nisha@147</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>9876543247</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Bangalore, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Amit Singh</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1990-07-15</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>amit.singh48@example.com</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Amit@148</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>9876543248</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Chennai, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Swati Gupta</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1992-01-26</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>swati.gupta49@example.com</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Swati@149</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>9876543249</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Chennai, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Kavita Gupta</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1997-01-13</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>kavita.gupta50@example.com</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Kavita@150</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>9876543250</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Delhi, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Kavita Nair</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1989-09-09</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>kavita.nair51@example.com</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Kavita@151</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>9876543251</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Gurgaon, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Rahul Mehta</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1986-05-04</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>rahul.mehta52@example.com</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Rahul@152</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>9876543252</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Jaipur, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Manish Joshi</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1998-01-11</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>manish.joshi53@example.com</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Manish@153</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>9876543253</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Gurgaon, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Nisha Gupta</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1996-09-09</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>nisha.gupta54@example.com</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Nisha@154</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>9876543254</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Ahmedabad, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Vikram Patel</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1988-10-31</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>vikram.patel55@example.com</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Vikram@155</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>9876543255</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Hyderabad, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Kavita Malhotra</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1988-11-23</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>kavita.malhotra56@example.com</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Kavita@156</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>9876543256</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Jaipur, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Suresh Patel</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1988-07-29</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>suresh.patel57@example.com</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Suresh@157</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>9876543257</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Kochi, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Manish Kumar</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1989-09-01</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>manish.kumar58@example.com</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Manish@158</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>9876543258</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Pune, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Manish Nair</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1995-09-23</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>manish.nair59@example.com</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Manish@159</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>9876543259</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Mumbai, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Rohit Sharma</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1996-05-11</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>rohit.sharma60@example.com</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Rohit@160</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>9876543260</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Jaipur, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Deepak Patel</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1995-01-10</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>deepak.patel61@example.com</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Deepak@161</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>9876543261</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Pune, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Manish Nair</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1985-09-22</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>manish.nair62@example.com</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Manish@162</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>9876543262</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Delhi, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Karan Malhotra</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1988-10-03</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>karan.malhotra63@example.com</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Karan@163</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>9876543263</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Pune, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Sneha Malhotra</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1988-10-16</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>sneha.malhotra64@example.com</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Sneha@164</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>9876543264</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Bangalore, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Vikram Verma</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1995-07-05</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>vikram.verma65@example.com</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Vikram@165</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>9876543265</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Hyderabad, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Karan Nair</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1990-01-27</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>karan.nair66@example.com</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Karan@166</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>9876543266</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Gurgaon, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Swati Verma</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1992-05-17</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>swati.verma67@example.com</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Swati@167</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>9876543267</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Bangalore, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Deepak Patel</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1989-07-10</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>deepak.patel68@example.com</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Deepak@168</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>9876543268</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Kochi, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Amit Mehta</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1993-11-09</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>amit.mehta69@example.com</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Amit@169</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>9876543269</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Hyderabad, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Suresh Patel</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1995-01-08</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>suresh.patel70@example.com</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Suresh@170</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>9876543270</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Pune, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Suresh Verma</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1987-04-24</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>suresh.verma71@example.com</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Suresh@171</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>9876543271</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Kolkata, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Rahul Malhotra</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1989-08-15</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>rahul.malhotra72@example.com</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Rahul@172</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>9876543272</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Kolkata, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Manish Kumar</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1988-12-18</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>manish.kumar73@example.com</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Manish@173</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>9876543273</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Surat, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Rajesh Sharma</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1995-04-06</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>rajesh.sharma74@example.com</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Rajesh@174</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>9876543274</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Hyderabad, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Amit Nair</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1989-08-25</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>amit.nair75@example.com</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Amit@175</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>9876543275</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Jaipur, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Neha Gupta</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1988-12-03</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>neha.gupta76@example.com</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Neha@176</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>9876543276</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Hyderabad, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Manish Patel</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1986-07-01</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>manish.patel77@example.com</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Manish@177</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>9876543277</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Bangalore, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Suresh Verma</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1993-03-13</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>suresh.verma78@example.com</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Suresh@178</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>9876543278</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Jaipur, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Rajesh Patel</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>1985-09-19</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>rajesh.patel79@example.com</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Rajesh@179</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>9876543279</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Ahmedabad, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Rohit Joshi</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>1992-09-11</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>rohit.joshi80@example.com</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Rohit@180</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>9876543280</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Gurgaon, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Pooja Mehta</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>1994-01-18</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>pooja.mehta81@example.com</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Pooja@181</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>9876543281</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Jaipur, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Suresh Verma</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>1998-06-20</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>suresh.verma82@example.com</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Suresh@182</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>9876543282</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Delhi, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Anjali Patel</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1992-12-21</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>anjali.patel83@example.com</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Anjali@183</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>9876543283</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Jaipur, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Manish Nair</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>1998-03-17</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>manish.nair84@example.com</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Manish@184</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>9876543284</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Kochi, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Arjun Joshi</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1992-07-27</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>arjun.joshi85@example.com</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Arjun@185</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>9876543285</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Kochi, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Suresh Singh</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1987-07-08</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>suresh.singh86@example.com</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Suresh@186</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>9876543286</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Kochi, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Deepak Gupta</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1985-08-10</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>deepak.gupta87@example.com</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Deepak@187</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>9876543287</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Gurgaon, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Sneha Joshi</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1987-03-17</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>sneha.joshi88@example.com</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Sneha@188</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>9876543288</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Kochi, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Anjali Singh</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1988-09-10</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>anjali.singh89@example.com</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Anjali@189</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>9876543289</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Hyderabad, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Arjun Nair</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1997-07-30</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>arjun.nair90@example.com</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Arjun@190</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>9876543290</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Pune, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Pooja Gupta</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>1992-08-22</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>pooja.gupta91@example.com</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Pooja@191</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>9876543291</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Ahmedabad, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Sneha Gupta</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1995-05-08</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>sneha.gupta92@example.com</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Sneha@192</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>9876543292</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Pune, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Priya Singh</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>1988-12-27</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>priya.singh93@example.com</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Priya@193</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>9876543293</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Jaipur, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Karan Kumar</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>1991-09-25</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>karan.kumar94@example.com</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Karan@194</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>9876543294</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Kochi, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Megha Verma</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1986-04-17</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>megha.verma95@example.com</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Megha@195</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>9876543295</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Kolkata, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Pooja Mehta</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1990-02-17</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>pooja.mehta96@example.com</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Pooja@196</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>9876543296</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Kochi, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Swati Singh</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>1985-06-18</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>swati.singh97@example.com</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Swati@197</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>9876543297</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Delhi, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Sneha Joshi</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>1987-06-05</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>sneha.joshi98@example.com</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Sneha@198</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>9876543298</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Mumbai, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Kavita Verma</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>1998-01-14</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>kavita.verma99@example.com</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Kavita@199</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>9876543299</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Ahmedabad, India</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Sneha Nair</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1995-02-09</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>sneha.nair100@example.com</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Sneha@200</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>9876543300</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Mumbai, India</t>
         </is>
       </c>
     </row>
